--- a/instance_generator/analysis/SPREAD_1_SEC_1.0_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.xlsx
+++ b/instance_generator/analysis/SPREAD_1_SEC_1.0_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.xlsx
@@ -463,10 +463,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D2" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D3" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D4" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D5" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D6" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D7" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D8" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D9" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D10" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D11" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D12" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D13" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D14" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D15" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D16" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D17" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D18" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D19" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D20" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D21" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D22" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D23" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D24" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D25" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D26" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D27" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D28" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D29" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D30" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D31" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D32" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D33" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D34" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D35" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D36" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D37" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D38" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D39" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D40" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D41" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42">
@@ -1023,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D42" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="43">
@@ -1037,10 +1037,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D43" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D44" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +1065,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D45" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D46" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="47">
@@ -1093,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D47" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48">
@@ -1107,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D48" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49">
@@ -1121,10 +1121,10 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D49" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50">
@@ -1135,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D50" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51">
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D51" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D52" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D53" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54">
@@ -1191,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D54" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55">
@@ -1205,10 +1205,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D55" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56">
@@ -1219,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D56" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="57">
@@ -1233,10 +1233,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D57" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58">
@@ -1247,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D58" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59">
@@ -1261,10 +1261,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D59" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1275,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D60" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="61">
@@ -1289,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D61" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="62">
@@ -1303,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D62" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="63">
@@ -1317,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D63" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64">
@@ -1331,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D64" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="65">
@@ -1345,10 +1345,10 @@
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D65" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D66" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="67">
@@ -1373,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D67" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="68">
@@ -1387,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D68" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="69">
@@ -1401,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D69" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="70">
@@ -1415,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D70" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="71">
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D71" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72">
@@ -1443,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D72" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="73">
@@ -1457,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D73" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D74" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="75">
@@ -1485,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D75" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="76">
@@ -1499,10 +1499,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D76" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="77">
@@ -1513,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D77" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78">
@@ -1527,10 +1527,10 @@
         <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D78" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="79">
@@ -1541,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D79" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="80">
@@ -1555,10 +1555,10 @@
         <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D80" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D81" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="82">
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D82" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="83">
@@ -1597,10 +1597,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D83" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="84">
@@ -1611,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D84" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="85">
@@ -1625,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D85" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="86">
@@ -1639,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D86" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="87">
@@ -1653,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D87" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="88">
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D88" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D89" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="90">
@@ -1695,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D90" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="91">
@@ -1709,10 +1709,10 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D91" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="92">
@@ -1723,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D92" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="93">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D93" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D94" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="95">
@@ -1765,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D95" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="96">
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D96" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="97">
@@ -1793,10 +1793,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D97" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="98">
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D98" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="99">
@@ -1821,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D99" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="100">
@@ -1835,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D100" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="101">
@@ -1849,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D101" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="102">
@@ -1863,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D102" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="103">
@@ -1877,10 +1877,10 @@
         <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D103" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="104">
@@ -1891,10 +1891,10 @@
         <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D104" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="105">
@@ -1905,10 +1905,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D105" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106">
@@ -1919,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D106" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="107">
@@ -1933,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D107" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="108">
@@ -1947,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D108" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="109">
@@ -1961,10 +1961,10 @@
         <v>5</v>
       </c>
       <c r="C109" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D109" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110">
@@ -1975,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D110" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111">
@@ -1989,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D111" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112">
@@ -2003,10 +2003,10 @@
         <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D112" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113">
@@ -2017,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D113" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="114">
@@ -2031,10 +2031,10 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D114" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D115" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="116">
@@ -2059,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D116" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117">
@@ -2073,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D117" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="118">
@@ -2087,10 +2087,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D118" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="119">
@@ -2101,10 +2101,10 @@
         <v>18</v>
       </c>
       <c r="C119" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D119" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="120">
@@ -2115,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D120" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="121">
@@ -2129,10 +2129,10 @@
         <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D121" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="122">
@@ -2143,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D122" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="123">
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D123" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="124">
@@ -2171,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D124" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125">
@@ -2185,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D125" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="126">
@@ -2199,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D126" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127">
@@ -2213,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D127" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="128">
@@ -2227,10 +2227,10 @@
         <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D128" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="129">
@@ -2241,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D129" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130">
@@ -2255,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D130" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131">
@@ -2269,10 +2269,10 @@
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D131" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="132">
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D132" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133">
@@ -2297,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D133" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="134">
@@ -2311,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D134" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135">
@@ -2325,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D135" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="136">
@@ -2339,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D136" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="137">
@@ -2353,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D137" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138">
@@ -2367,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D138" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="139">
@@ -2381,10 +2381,10 @@
         <v>11</v>
       </c>
       <c r="C139" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D139" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="140">
@@ -2395,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D140" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="141">
@@ -2409,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D141" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="142">
@@ -2423,10 +2423,10 @@
         <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D142" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="143">
@@ -2437,10 +2437,10 @@
         <v>3</v>
       </c>
       <c r="C143" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D143" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="144">
@@ -2451,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D144" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="145">
@@ -2465,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D145" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146">
@@ -2479,10 +2479,10 @@
         <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D146" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147">
@@ -2493,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D147" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="148">
@@ -2507,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D148" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="149">
@@ -2521,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D149" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="150">
@@ -2535,10 +2535,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D150" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="151">
@@ -2549,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D151" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="152">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D152" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153">
@@ -2577,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D153" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154">
@@ -2591,10 +2591,10 @@
         <v>12</v>
       </c>
       <c r="C154" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D154" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="155">
@@ -2605,10 +2605,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D155" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156">
@@ -2619,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D156" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157">
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D157" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="158">
@@ -2647,10 +2647,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D158" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="159">
@@ -2661,10 +2661,10 @@
         <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D159" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="160">
@@ -2675,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D160" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="161">
@@ -2689,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="C161" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D161" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162">
@@ -2703,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D162" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="163">
@@ -2717,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D163" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="164">
@@ -2731,10 +2731,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D164" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="165">
@@ -2745,10 +2745,10 @@
         <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D165" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="166">
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D166" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="167">
@@ -2773,10 +2773,10 @@
         <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D167" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168">
@@ -2787,10 +2787,10 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D168" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="169">
@@ -2801,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D169" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="170">
@@ -2815,10 +2815,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D170" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D171" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="172">
@@ -2843,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D172" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="173">
@@ -2857,10 +2857,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D173" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="174">
@@ -2871,10 +2871,10 @@
         <v>9</v>
       </c>
       <c r="C174" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D174" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="175">
@@ -2885,10 +2885,10 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D175" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="176">
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D176" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="177">
@@ -2913,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D177" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="178">
@@ -2927,10 +2927,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D178" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="179">
@@ -2941,10 +2941,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D179" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="180">
@@ -2955,10 +2955,10 @@
         <v>9</v>
       </c>
       <c r="C180" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D180" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="181">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D181" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="182">
@@ -2983,10 +2983,10 @@
         <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D182" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="183">
@@ -2997,10 +2997,10 @@
         <v>16</v>
       </c>
       <c r="C183" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D183" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="184">
@@ -3011,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D184" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="185">
@@ -3025,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="C185" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D185" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="186">
@@ -3039,10 +3039,10 @@
         <v>8</v>
       </c>
       <c r="C186" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D186" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="187">
@@ -3053,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D187" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="188">
@@ -3067,10 +3067,10 @@
         <v>3</v>
       </c>
       <c r="C188" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D188" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="189">
@@ -3081,10 +3081,10 @@
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D189" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="190">
@@ -3095,10 +3095,10 @@
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D190" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="191">
@@ -3109,10 +3109,10 @@
         <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D191" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="192">
@@ -3123,10 +3123,10 @@
         <v>13</v>
       </c>
       <c r="C192" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D192" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="193">
@@ -3137,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D193" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="194">
@@ -3151,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D194" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="195">
@@ -3165,10 +3165,10 @@
         <v>3</v>
       </c>
       <c r="C195" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D195" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="196">
@@ -3179,10 +3179,10 @@
         <v>12</v>
       </c>
       <c r="C196" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D196" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197">
@@ -3193,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D197" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="198">
@@ -3207,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D198" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="199">
@@ -3221,10 +3221,10 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D199" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200">
@@ -3235,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D200" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="201">
@@ -3249,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D201" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="202">
@@ -3263,10 +3263,10 @@
         <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D202" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="203">
@@ -3277,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C203" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D203" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="204">
@@ -3291,10 +3291,10 @@
         <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D204" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="205">
@@ -3305,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D205" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="206">
@@ -3319,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D206" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="207">
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D207" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="208">
@@ -3347,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="C208" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D208" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="209">
@@ -3361,10 +3361,10 @@
         <v>6</v>
       </c>
       <c r="C209" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D209" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="210">
@@ -3375,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D210" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="211">
@@ -3389,10 +3389,10 @@
         <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D211" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="212">
@@ -3403,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D212" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="213">
@@ -3417,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D213" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="214">
@@ -3431,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D214" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="215">
@@ -3445,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D215" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="216">
@@ -3459,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D216" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="217">
@@ -3473,10 +3473,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D217" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="218">
@@ -3487,10 +3487,10 @@
         <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D218" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="219">
@@ -3501,10 +3501,10 @@
         <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D219" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="220">
@@ -3515,10 +3515,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D220" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="221">
@@ -3529,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D221" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="222">
@@ -3543,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D222" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="223">
@@ -3557,10 +3557,10 @@
         <v>2</v>
       </c>
       <c r="C223" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D223" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="224">
@@ -3571,10 +3571,10 @@
         <v>3</v>
       </c>
       <c r="C224" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D224" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="225">
@@ -3585,10 +3585,10 @@
         <v>5</v>
       </c>
       <c r="C225" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D225" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="226">
@@ -3599,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D226" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="227">
@@ -3613,10 +3613,10 @@
         <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D227" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="228">
@@ -3627,10 +3627,10 @@
         <v>2</v>
       </c>
       <c r="C228" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D228" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="229">
@@ -3641,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D229" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="230">
@@ -3655,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C230" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D230" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="231">
@@ -3669,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D231" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232">
@@ -3683,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D232" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="233">
@@ -3697,10 +3697,10 @@
         <v>2</v>
       </c>
       <c r="C233" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D233" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="234">
@@ -3711,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D234" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="235">
@@ -3725,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D235" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="236">
@@ -3739,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D236" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="237">
@@ -3753,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D237" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="238">
@@ -3767,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="C238" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D238" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="239">
@@ -3781,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D239" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="240">
@@ -3795,10 +3795,10 @@
         <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D240" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="241">
@@ -3809,10 +3809,10 @@
         <v>2</v>
       </c>
       <c r="C241" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D241" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="242">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="C242" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D242" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="243">
@@ -3837,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D243" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="244">
@@ -3851,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="C244" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D244" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="245">
@@ -3865,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="C245" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D245" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="246">
@@ -3879,10 +3879,10 @@
         <v>4</v>
       </c>
       <c r="C246" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D246" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="247">
@@ -3893,10 +3893,10 @@
         <v>3</v>
       </c>
       <c r="C247" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D247" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="248">
@@ -3907,10 +3907,10 @@
         <v>8</v>
       </c>
       <c r="C248" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D248" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="249">
@@ -3921,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D249" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250">
@@ -3935,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D250" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="251">
@@ -3949,10 +3949,10 @@
         <v>6</v>
       </c>
       <c r="C251" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D251" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="252">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="C252" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D252" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="253">
@@ -3977,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D253" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="254">
@@ -3991,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D254" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="255">
@@ -4005,10 +4005,10 @@
         <v>2</v>
       </c>
       <c r="C255" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D255" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="256">
@@ -4019,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="C256" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D256" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="257">
@@ -4033,10 +4033,10 @@
         <v>2</v>
       </c>
       <c r="C257" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D257" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="258">
@@ -4047,10 +4047,10 @@
         <v>4</v>
       </c>
       <c r="C258" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D258" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="259">
@@ -4061,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="C259" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D259" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="260">
@@ -4075,10 +4075,10 @@
         <v>8</v>
       </c>
       <c r="C260" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D260" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="261">
@@ -4089,10 +4089,10 @@
         <v>6</v>
       </c>
       <c r="C261" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D261" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="262">
@@ -4103,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D262" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="263">
@@ -4117,10 +4117,10 @@
         <v>4</v>
       </c>
       <c r="C263" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D263" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="264">
@@ -4131,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="C264" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D264" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="265">
@@ -4145,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="C265" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D265" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="266">
@@ -4159,10 +4159,10 @@
         <v>13</v>
       </c>
       <c r="C266" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D266" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="267">
@@ -4173,10 +4173,10 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D267" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="268">
@@ -4187,10 +4187,10 @@
         <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D268" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="269">
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D269" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="270">
@@ -4215,10 +4215,10 @@
         <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D270" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="271">
@@ -4229,10 +4229,10 @@
         <v>4</v>
       </c>
       <c r="C271" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D271" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="272">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="C272" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D272" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="273">
@@ -4257,10 +4257,10 @@
         <v>5</v>
       </c>
       <c r="C273" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D273" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +4268,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C274" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D274" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="275">
@@ -4285,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D275" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="276">
@@ -4299,10 +4299,10 @@
         <v>2</v>
       </c>
       <c r="C276" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D276" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="277">
@@ -4313,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D277" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="278">
@@ -4327,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="C278" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D278" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="279">
@@ -4341,10 +4341,10 @@
         <v>13</v>
       </c>
       <c r="C279" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D279" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="280">
@@ -4355,10 +4355,10 @@
         <v>4</v>
       </c>
       <c r="C280" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D280" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="281">
@@ -4369,10 +4369,10 @@
         <v>2</v>
       </c>
       <c r="C281" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D281" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282">
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D282" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="283">
@@ -4397,10 +4397,10 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D283" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="284">
@@ -4411,10 +4411,10 @@
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D284" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="285">
@@ -4425,10 +4425,10 @@
         <v>2</v>
       </c>
       <c r="C285" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D285" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="286">
@@ -4439,10 +4439,10 @@
         <v>2</v>
       </c>
       <c r="C286" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D286" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="287">
@@ -4453,10 +4453,10 @@
         <v>5</v>
       </c>
       <c r="C287" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D287" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="288">
@@ -4467,10 +4467,10 @@
         <v>4</v>
       </c>
       <c r="C288" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D288" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="289">
@@ -4481,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="C289" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D289" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="290">
@@ -4495,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C290" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D290" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="291">
@@ -4509,10 +4509,10 @@
         <v>2</v>
       </c>
       <c r="C291" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D291" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="292">
@@ -4523,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D292" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293">
@@ -4537,10 +4537,10 @@
         <v>3</v>
       </c>
       <c r="C293" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D293" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="294">
@@ -4551,10 +4551,10 @@
         <v>4</v>
       </c>
       <c r="C294" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D294" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="295">
@@ -4565,10 +4565,10 @@
         <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D295" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="296">
@@ -4579,10 +4579,10 @@
         <v>8</v>
       </c>
       <c r="C296" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D296" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="297">
@@ -4593,10 +4593,10 @@
         <v>2</v>
       </c>
       <c r="C297" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D297" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="298">
@@ -4607,10 +4607,10 @@
         <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D298" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="299">
@@ -4621,10 +4621,10 @@
         <v>2</v>
       </c>
       <c r="C299" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D299" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="300">
@@ -4635,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D300" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="301">
@@ -4649,10 +4649,10 @@
         <v>3</v>
       </c>
       <c r="C301" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D301" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
